--- a/Result/blind_sequencing_result_line_version_length3.xlsx
+++ b/Result/blind_sequencing_result_line_version_length3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shangsilin/Desktop/Autumn 2025/mRNA_sequencing/Result/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rt753149/Desktop/mRNA_sequencing/Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A339C7-B3E4-F14F-B0C8-D6A7A82CC5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20F2EE9-311E-164D-A279-2E5F2B53FDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="162" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
